--- a/NguyenThiThanh_BLTC_v4.0.xlsx
+++ b/NguyenThiThanh_BLTC_v4.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Blackbox_Thanh_v04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\FPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Module7" sheetId="2" r:id="rId2"/>
     <sheet name="Module9" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="result">Module6!$J$15:$J$19</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,8 +28,92 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>Module6</t>
   </si>
@@ -449,12 +536,15 @@
   <si>
     <t xml:space="preserve"> Duyệt đề tài không thành công khi kết nối cơ sở dữ liệu bị lỗi hoặc không tồn tại đề tài được duyệt:        -Check vào cột [Duyệt] trên hàng có thông tin muốn duyệt.                      -Nhấn button [Lưu]</t>
   </si>
+  <si>
+    <t>Untesed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +633,13 @@
       <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1132,11 +1229,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,9 +1244,10 @@
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1256,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1265,7 @@
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1274,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1189,7 +1287,7 @@
       </c>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1204,7 +1302,7 @@
       </c>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1213,7 +1311,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="25.5">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1239,7 +1337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -1251,7 +1349,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="255">
+    <row r="9" spans="1:10" ht="255">
       <c r="A9" s="12" t="s">
         <v>76</v>
       </c>
@@ -1271,7 +1369,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="114.75">
+    <row r="10" spans="1:10" ht="114.75">
       <c r="A10" s="12" t="s">
         <v>77</v>
       </c>
@@ -1291,7 +1389,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="89.25">
+    <row r="11" spans="1:10" ht="89.25">
       <c r="A11" s="12" t="s">
         <v>78</v>
       </c>
@@ -1311,7 +1409,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="102">
+    <row r="12" spans="1:10" ht="102">
       <c r="A12" s="12" t="s">
         <v>79</v>
       </c>
@@ -1331,7 +1429,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="102">
+    <row r="13" spans="1:10" ht="102">
       <c r="A13" s="12" t="s">
         <v>80</v>
       </c>
@@ -1351,7 +1449,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1360,7 +1458,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -1368,8 +1466,11 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1377,8 +1478,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1387,7 +1491,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:10">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1395,6 +1499,14 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1404,16 +1516,25 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F13">
+      <formula1 xml:space="preserve"> result</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7">
+      <formula1>result</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1655,16 +1776,25 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7">
+      <formula1>result</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F13">
+      <formula1>result</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1886,6 +2016,15 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7">
+      <formula1>result</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F12">
+      <formula1>result</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/NguyenThiThanh_BLTC_v4.0.xlsx
+++ b/NguyenThiThanh_BLTC_v4.0.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Module6</t>
   </si>
@@ -511,21 +511,6 @@
 + column [Duyệt]: &lt;input type="checkbox"&gt; Dữ liệu được input vào chỉ chứa giá trị selected hoặc không chứ giá trị
 - Button Lưu: Cho phép người dùng click vào button
 </t>
-  </si>
-  <si>
-    <t>[Module 6-1]</t>
-  </si>
-  <si>
-    <t>[Module6-2]</t>
-  </si>
-  <si>
-    <t>[Module6-3]</t>
-  </si>
-  <si>
-    <t>[Module6-4]</t>
-  </si>
-  <si>
-    <t>[Module6-5]</t>
   </si>
   <si>
     <t>[Module9-3]</t>
@@ -1232,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1350,8 +1335,9 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="255">
-      <c r="A9" s="12" t="s">
-        <v>76</v>
+      <c r="A9" s="12" t="str">
+        <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module6--1]</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>14</v>
@@ -1370,8 +1356,9 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="114.75">
-      <c r="A10" s="12" t="s">
-        <v>77</v>
+      <c r="A10" s="12" t="str">
+        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module6-]</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>16</v>
@@ -1390,8 +1377,9 @@
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="89.25">
-      <c r="A11" s="12" t="s">
-        <v>78</v>
+      <c r="A11" s="12" t="str">
+        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module6-1]</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>16</v>
@@ -1410,8 +1398,9 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="102">
-      <c r="A12" s="12" t="s">
-        <v>79</v>
+      <c r="A12" s="12" t="str">
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module6-2]</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>16</v>
@@ -1430,8 +1419,9 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="102">
-      <c r="A13" s="12" t="s">
-        <v>80</v>
+      <c r="A13" s="12" t="str">
+        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module6-3]</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>16</v>
@@ -1500,7 +1490,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1970,7 +1960,7 @@
     </row>
     <row r="11" spans="1:8" ht="51">
       <c r="A11" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>30</v>
@@ -1990,13 +1980,13 @@
     </row>
     <row r="12" spans="1:8" ht="76.5">
       <c r="A12" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>74</v>

--- a/NguyenThiThanh_BLTC_v4.0.xlsx
+++ b/NguyenThiThanh_BLTC_v4.0.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Module9" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="result">Module6!$J$15:$J$19</definedName>
+    <definedName name="result">Module6!$J$16:$J$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>Module6</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Chức năng Duyệt đề tài</t>
   </si>
   <si>
-    <t>[Module9-1]</t>
-  </si>
-  <si>
     <r>
       <t>Test giao diện toàn màn hình</t>
     </r>
@@ -226,9 +223,6 @@
 2.Click vào Thông tin đề tài trên thanh menu </t>
   </si>
   <si>
-    <t>[Module9-2]</t>
-  </si>
-  <si>
     <t>Test chức năng Lưu</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
   </si>
   <si>
     <t>Chức năng Đăng ký đề tài hướng dẫn</t>
-  </si>
-  <si>
-    <t>[Module7-1]</t>
   </si>
   <si>
     <r>
@@ -267,9 +258,6 @@
 - [Số lượng sinh viên tối đa] &lt;input type="number" min="0" max="5"&gt;: cho phép người dùng nhập số,  dữ liệu mặc định là 0, nhập vào số lớn nhất là 5
 - [Tên đề tài] &lt;input type="text"&gt;: cho phép nhập tối đa 50 kí tự
 - Button Đăng ký: cho phép người sử dụng click vào để đăng ký</t>
-  </si>
-  <si>
-    <t>[Module7-2]</t>
   </si>
   <si>
     <r>
@@ -301,9 +289,6 @@
     <t>Hiển thị màn hình đăng ký đề tài hướng dẫn</t>
   </si>
   <si>
-    <t>[Module7-3]</t>
-  </si>
-  <si>
     <r>
       <t>Test validate cho trường</t>
     </r>
@@ -330,9 +315,6 @@
     <t>3.1. Hiển thị thông báo lỗi:"Vui lòng chọn số lượng sinh viên hướng dẫn"</t>
   </si>
   <si>
-    <t>[Module7-4]</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test validate cho trường </t>
     </r>
@@ -358,9 +340,6 @@
   <si>
     <t>4.1. Hiển thị thông báo: "Bạn phải nhập đủ số lượng đề tài như đã đăng ký"
 4.2. Hiển thị thông báo: "Tên đề tài quá dài"</t>
-  </si>
-  <si>
-    <t>[Module7-5]</t>
   </si>
   <si>
     <r>
@@ -511,12 +490,6 @@
 + column [Duyệt]: &lt;input type="checkbox"&gt; Dữ liệu được input vào chỉ chứa giá trị selected hoặc không chứ giá trị
 - Button Lưu: Cho phép người dùng click vào button
 </t>
-  </si>
-  <si>
-    <t>[Module9-3]</t>
-  </si>
-  <si>
-    <t>[Module9-4]</t>
   </si>
   <si>
     <t xml:space="preserve"> Duyệt đề tài không thành công khi kết nối cơ sở dữ liệu bị lỗi hoặc không tồn tại đề tài được duyệt:        -Check vào cột [Duyệt] trên hàng có thông tin muốn duyệt.                      -Nhấn button [Lưu]</t>
@@ -847,7 +820,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,6 +892,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1215,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1233,31 +1212,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1"/>
@@ -1267,10 +1246,10 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="B5" s="3">
@@ -1282,137 +1261,123 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>5</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.5">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="255">
-      <c r="A9" s="12" t="str">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="255">
+      <c r="A10" s="12" t="str">
         <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module6--1]</v>
-      </c>
-      <c r="B9" s="12" t="s">
+        <v>[Module6-]</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="114.75">
-      <c r="A10" s="12" t="str">
-        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module6-]</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>68</v>
+      <c r="D10" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="89.25">
+    <row r="11" spans="1:10" ht="114.75">
       <c r="A11" s="12" t="str">
-        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module6-1]</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="102">
+    <row r="12" spans="1:10" ht="89.25">
       <c r="A12" s="12" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module6-2]</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1420,33 +1385,45 @@
     </row>
     <row r="13" spans="1:10" ht="102">
       <c r="A13" s="12" t="str">
-        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module6-3]</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="102">
+      <c r="A14" s="12" t="str">
+        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module6-4]</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="19"/>
@@ -1456,30 +1433,30 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="J16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="J16" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="J17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="19"/>
@@ -1489,12 +1466,21 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="19" spans="2:10">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="J19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1507,10 +1493,10 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F14">
       <formula1 xml:space="preserve"> result</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
       <formula1>result</formula1>
     </dataValidation>
   </dataValidations>
@@ -1521,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1542,37 +1528,37 @@
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="26.25">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
@@ -1587,10 +1573,10 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="23">
@@ -1605,158 +1591,171 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>5</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="24"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="165.75">
+      <c r="A10" s="12" t="str">
+        <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module7-]</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" ht="165.75">
-      <c r="A9" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="140.25">
-      <c r="A10" s="12" t="s">
+      <c r="E10" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="153">
-      <c r="A11" s="12" t="s">
-        <v>43</v>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="140.25">
+      <c r="A11" s="12" t="str">
+        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module7-1]</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" ht="140.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
+    <row r="12" spans="1:8" ht="153">
+      <c r="A12" s="12" t="str">
+        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module7-2]</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" ht="114.75">
-      <c r="A13" s="12" t="s">
-        <v>51</v>
+    <row r="13" spans="1:8" ht="140.25">
+      <c r="A13" s="12" t="str">
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module7-3]</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="114.75">
+      <c r="A14" s="12" t="str">
+        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module7-4]</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1767,10 +1766,10 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
       <formula1>result</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F14">
       <formula1>result</formula1>
     </dataValidation>
   </dataValidations>
@@ -1781,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1802,37 +1801,37 @@
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="26.25">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
@@ -1847,10 +1846,10 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="23">
@@ -1865,138 +1864,150 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="24"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" ht="409.5">
-      <c r="A9" s="12" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="409.5">
+      <c r="A10" s="12" t="str">
+        <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module9-]</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="63.75">
-      <c r="A10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="51">
-      <c r="A11" s="12" t="s">
-        <v>76</v>
+    <row r="11" spans="1:8" ht="63.75">
+      <c r="A11" s="12" t="str">
+        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module9-1]</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="76.5">
-      <c r="A12" s="12" t="s">
-        <v>77</v>
+    <row r="12" spans="1:8" ht="51">
+      <c r="A12" s="12" t="str">
+        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module9-2]</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="76.5">
+      <c r="A13" s="12" t="str">
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module9-3]</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2007,10 +2018,10 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
       <formula1>result</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13">
       <formula1>result</formula1>
     </dataValidation>
   </dataValidations>

--- a/NguyenThiThanh_BLTC_v4.0.xlsx
+++ b/NguyenThiThanh_BLTC_v4.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\FPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\RUP_FPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Module6" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="result">Module6!$J$15:$J$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>Module6</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Chức năng Duyệt đề tài</t>
   </si>
   <si>
-    <t>[Module9-1]</t>
-  </si>
-  <si>
     <r>
       <t>Test giao diện toàn màn hình</t>
     </r>
@@ -226,9 +223,6 @@
 2.Click vào Thông tin đề tài trên thanh menu </t>
   </si>
   <si>
-    <t>[Module9-2]</t>
-  </si>
-  <si>
     <t>Test chức năng Lưu</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
   </si>
   <si>
     <t>Chức năng Đăng ký đề tài hướng dẫn</t>
-  </si>
-  <si>
-    <t>[Module7-1]</t>
   </si>
   <si>
     <r>
@@ -267,9 +258,6 @@
 - [Số lượng sinh viên tối đa] &lt;input type="number" min="0" max="5"&gt;: cho phép người dùng nhập số,  dữ liệu mặc định là 0, nhập vào số lớn nhất là 5
 - [Tên đề tài] &lt;input type="text"&gt;: cho phép nhập tối đa 50 kí tự
 - Button Đăng ký: cho phép người sử dụng click vào để đăng ký</t>
-  </si>
-  <si>
-    <t>[Module7-2]</t>
   </si>
   <si>
     <r>
@@ -301,9 +289,6 @@
     <t>Hiển thị màn hình đăng ký đề tài hướng dẫn</t>
   </si>
   <si>
-    <t>[Module7-3]</t>
-  </si>
-  <si>
     <r>
       <t>Test validate cho trường</t>
     </r>
@@ -330,9 +315,6 @@
     <t>3.1. Hiển thị thông báo lỗi:"Vui lòng chọn số lượng sinh viên hướng dẫn"</t>
   </si>
   <si>
-    <t>[Module7-4]</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test validate cho trường </t>
     </r>
@@ -358,9 +340,6 @@
   <si>
     <t>4.1. Hiển thị thông báo: "Bạn phải nhập đủ số lượng đề tài như đã đăng ký"
 4.2. Hiển thị thông báo: "Tên đề tài quá dài"</t>
-  </si>
-  <si>
-    <t>[Module7-5]</t>
   </si>
   <si>
     <r>
@@ -513,12 +492,6 @@
 </t>
   </si>
   <si>
-    <t>[Module9-3]</t>
-  </si>
-  <si>
-    <t>[Module9-4]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Duyệt đề tài không thành công khi kết nối cơ sở dữ liệu bị lỗi hoặc không tồn tại đề tài được duyệt:        -Check vào cột [Duyệt] trên hàng có thông tin muốn duyệt.                      -Nhấn button [Lưu]</t>
   </si>
   <si>
@@ -528,7 +501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1217,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1334,10 +1307,10 @@
       <c r="G8" s="9"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="255">
+    <row r="9" spans="1:10" ht="129.75" customHeight="1">
       <c r="A9" s="12" t="str">
-        <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module6--1]</v>
+        <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module6-]</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>14</v>
@@ -1346,10 +1319,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1357,20 +1330,20 @@
     </row>
     <row r="10" spans="1:10" ht="114.75">
       <c r="A10" s="12" t="str">
-        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module6-]</v>
+        <f t="shared" ref="A10:A13" si="0">IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module6-1]</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1378,20 +1351,20 @@
     </row>
     <row r="11" spans="1:10" ht="89.25">
       <c r="A11" s="12" t="str">
-        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module6-1]</v>
+        <f t="shared" si="0"/>
+        <v>[Module6-2]</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1399,20 +1372,20 @@
     </row>
     <row r="12" spans="1:10" ht="102">
       <c r="A12" s="12" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module6-2]</v>
+        <f t="shared" si="0"/>
+        <v>[Module6-3]</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1420,20 +1393,20 @@
     </row>
     <row r="13" spans="1:10" ht="102">
       <c r="A13" s="12" t="str">
-        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module6-3]</v>
+        <f t="shared" si="0"/>
+        <v>[Module6-4]</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1490,7 +1463,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1523,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1543,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -1555,7 +1528,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1649,7 +1622,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -1659,100 +1632,105 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="165.75">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="12" t="str">
+        <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module7-]</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="140.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="12" t="str">
+        <f t="shared" ref="A10:A13" si="0">IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module7-1]</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="153">
-      <c r="A11" s="12" t="s">
-        <v>43</v>
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module7-2]</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="140.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module7-3]</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="114.75">
-      <c r="A13" s="12" t="s">
-        <v>51</v>
+      <c r="A13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module7-4]</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1783,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1919,80 +1897,84 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="409.5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="12" t="str">
+        <f>IF(OR(B9&lt;&gt;"",D9&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module9-]</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="63.75">
-      <c r="A10" s="12" t="s">
-        <v>29</v>
+      <c r="A10" s="12" t="str">
+        <f t="shared" ref="A10:A12" si="0">IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module9-1]</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="51">
-      <c r="A11" s="12" t="s">
-        <v>76</v>
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module9-2]</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="76.5">
-      <c r="A12" s="12" t="s">
-        <v>77</v>
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module9-3]</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
